--- a/AR/Customer Address book & CNY gift/Customer Address Book_CNY_madarin orange.xlsx
+++ b/AR/Customer Address book & CNY gift/Customer Address Book_CNY_madarin orange.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\audrinayoo\Documents\AR\Customer Address book &amp; CNY gift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0815992C-244D-4235-9906-45321D36A71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A25FDC8-38F1-47EE-81EC-182F5E79058C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{8346D1FA-795A-4979-B3B5-DC6DA5F4C5EE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{8346D1FA-795A-4979-B3B5-DC6DA5F4C5EE}"/>
   </bookViews>
   <sheets>
     <sheet name="MOrange CNY 2021" sheetId="1" r:id="rId1"/>
     <sheet name="MOrange CNY 2022" sheetId="2" r:id="rId2"/>
     <sheet name="MOrange CNY 2023" sheetId="3" r:id="rId3"/>
     <sheet name="Gift" sheetId="4" r:id="rId4"/>
+    <sheet name="MOrange CNY 2024" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'MOrange CNY 2021'!$A$1:$L$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'MOrange CNY 2022'!$A$1:$J$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'MOrange CNY 2023'!$A$1:$J$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'MOrange CNY 2024'!$A$1:$J$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="131">
   <si>
     <t>Kelnico Marketing</t>
   </si>
@@ -414,6 +416,18 @@
   </si>
   <si>
     <t>Bestway, Yew Seng, WSK, Kelnico</t>
+  </si>
+  <si>
+    <t>Cash - Encik Razak</t>
+  </si>
+  <si>
+    <t>C00000044</t>
+  </si>
+  <si>
+    <t>Welltech (M) Sdn Bhd</t>
+  </si>
+  <si>
+    <t>C00000042</t>
   </si>
 </sst>
 </file>
@@ -928,6 +942,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>128976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD520CE1-F42A-49BF-A5E0-BA2DB04EF121}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4851400" y="426790"/>
+          <a:ext cx="2343150" cy="1276986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2174,7 +2237,7 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2541,7 +2604,7 @@
   <dimension ref="A22:K44"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2574,4 +2637,282 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BEBFAB0-42D7-44E5-A4E5-C3B3B03229F0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="37" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="17.453125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="6">
+        <f>SUM(G2:G15)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="16" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78740157480314965" right="0.19685039370078741" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="92" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>